--- a/data/trans_orig/Q21A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q21A-Habitat-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.183780958703726</v>
+        <v>1.192825592642759</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.51174669694698</v>
+        <v>1.521690733191646</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.468384295490788</v>
+        <v>1.475320819672892</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.388686336827056</v>
+        <v>1.38357868125694</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.520768484447675</v>
+        <v>1.498336744846699</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.8134461315303</v>
+        <v>1.833918564445345</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.521187929942898</v>
+        <v>1.522579427447174</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.51834997563128</v>
+        <v>1.519106635842109</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.392528239215399</v>
+        <v>1.406584838632673</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1.77000840424575</v>
+        <v>1.755170017478034</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.546873398233672</v>
+        <v>1.542957372150445</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>1.513613910154939</v>
+        <v>1.518567488350879</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.586391767238273</v>
+        <v>1.565353222321262</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.994761153724547</v>
+        <v>2.948160714323798</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.0915729278118</v>
+        <v>2.085769355904309</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.571263867627616</v>
+        <v>2.551388017088681</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.039328850642838</v>
+        <v>2.029897730281902</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.660909402625751</v>
+        <v>2.699083993426544</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.080918656398503</v>
+        <v>2.059550727854771</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.241818987506046</v>
+        <v>2.325595166859959</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.727744652790765</v>
+        <v>1.74599702225263</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2.515415093328681</v>
+        <v>2.44108743942445</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1.934347238638993</v>
+        <v>1.948001449961082</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>2.155497438553533</v>
+        <v>2.219033770455533</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.253188177771118</v>
+        <v>1.256688962929516</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.29827421925889</v>
+        <v>1.299937952790838</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.380180338112345</v>
+        <v>1.406930146231928</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.504849990374764</v>
+        <v>1.510956044892022</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.588197744596839</v>
+        <v>1.601002186409062</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1.74463140963294</v>
+        <v>1.757844364325793</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.611500689363652</v>
+        <v>1.606895825081272</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>1.698157054716997</v>
+        <v>1.707753006520947</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>1.491102439039151</v>
+        <v>1.48583248523229</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1.579917434597828</v>
+        <v>1.581367363309593</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.56917411608898</v>
+        <v>1.583241122164709</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>1.676300440086733</v>
+        <v>1.675932922969026</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.51155510252559</v>
+        <v>1.5275124687066</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.600202229959146</v>
+        <v>1.581942713254532</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.301321472035618</v>
+        <v>2.340762917344323</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.030198649246147</v>
+        <v>3.001492797354359</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.980974664597772</v>
+        <v>1.984366280919878</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>2.224984181150945</v>
+        <v>2.237325886089091</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.385364184353874</v>
+        <v>2.30939407763738</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.18198494930369</v>
+        <v>2.185806365496099</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>1.739475170484427</v>
+        <v>1.749916075674422</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1.866203900285889</v>
+        <v>1.876192072906885</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2.096948457535998</v>
+        <v>2.129993421914812</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>2.40478289291538</v>
+        <v>2.439761318334939</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>1.540992924116783</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.702367481258561</v>
+        <v>1.702367481258562</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>1.734434613650924</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.168096209440302</v>
+        <v>1.164952784761142</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.785482519590267</v>
+        <v>1.771121256838303</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.371303042599128</v>
+        <v>1.369322365482087</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.514625418588581</v>
+        <v>1.512808501233047</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.500774999527571</v>
+        <v>1.511332507833901</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.70908386084125</v>
+        <v>1.692210345704791</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.818306022191665</v>
+        <v>1.797044715687621</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.052798479241768</v>
+        <v>2.089066957326618</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.3981667389056</v>
+        <v>1.4013108933223</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1.789203687532378</v>
+        <v>1.799701620092874</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.67062853846658</v>
+        <v>1.652739859388234</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>1.907404616140572</v>
+        <v>1.904834175497305</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.415630710775644</v>
+        <v>1.42868609580192</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.783809160810553</v>
+        <v>2.840025882447361</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.923440060016447</v>
+        <v>1.908299391586423</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.957266613914246</v>
+        <v>1.984537918431723</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.113966011362468</v>
+        <v>2.130497507700294</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.145597231562882</v>
+        <v>2.105045305227369</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.958947203891835</v>
+        <v>2.918005669937173</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.210987917797832</v>
+        <v>3.232610119053304</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.78177733887152</v>
+        <v>1.782162805687445</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2.268565365350571</v>
+        <v>2.311736500644853</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>2.326244165611747</v>
+        <v>2.364251085078151</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>2.572101166444364</v>
+        <v>2.60047688680106</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>1.760937238908064</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>1.838047477970104</v>
+        <v>1.838047477970105</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.294323592179926</v>
+        <v>1.294112530475818</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.404208095538062</v>
+        <v>1.400517217679273</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.407154475501815</v>
+        <v>1.403255365719425</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.554995474255723</v>
+        <v>1.550508375680582</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.549678036196584</v>
+        <v>1.569342234679054</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1.470913583180237</v>
+        <v>1.48641182899992</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.688448830976101</v>
+        <v>1.680152755185674</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>1.631115242737048</v>
+        <v>1.629800059587444</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>1.500823016061252</v>
+        <v>1.492398417008958</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1.497805962336175</v>
+        <v>1.495865581362736</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.631652312360186</v>
+        <v>1.624563065769208</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>1.669920984662803</v>
+        <v>1.663351565271998</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.970580821103202</v>
+        <v>2.001679427628861</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.81283630999504</v>
+        <v>1.831425947367479</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.764815742693358</v>
+        <v>1.742885216969402</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.208810570499578</v>
+        <v>2.231394305467613</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>2.038058082666176</v>
+        <v>2.030716446133965</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1.943893977713293</v>
+        <v>2.008412577668929</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.197047686138684</v>
+        <v>2.187334333133997</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.321314361361018</v>
+        <v>2.320312674250261</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>1.858838757491361</v>
+        <v>1.866362567356272</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1.860787739853261</v>
+        <v>1.843768615356181</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>1.977927533926535</v>
+        <v>1.953205722777579</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>2.135640267325502</v>
+        <v>2.135136570877663</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.285636992125998</v>
+        <v>1.289687458838959</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.586137838828688</v>
+        <v>1.59206517056897</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.501814102101368</v>
+        <v>1.501791384645148</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.620230660306427</v>
+        <v>1.625581868887394</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.630301431966152</v>
+        <v>1.636264974866902</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.780954205802509</v>
+        <v>1.771802039371374</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.765834553429465</v>
+        <v>1.755262954710756</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.84020643558623</v>
+        <v>1.83159529618659</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.514715864671328</v>
+        <v>1.516830748037695</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1.732600804626544</v>
+        <v>1.72294425068181</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.677279389070349</v>
+        <v>1.675882378587727</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>1.784780176030655</v>
+        <v>1.791385728613549</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.47945140799032</v>
+        <v>1.473355191715866</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.953575068979874</v>
+        <v>1.972758161270785</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.813908829202131</v>
+        <v>1.808946213212082</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.116871613188637</v>
+        <v>2.124895071578136</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.870370427170107</v>
+        <v>1.865264440544339</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.054288112384162</v>
+        <v>2.030887026642202</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.101529422999084</v>
+        <v>2.088232809693034</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.204566527092521</v>
+        <v>2.182197057021666</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.671255861965747</v>
+        <v>1.681861570587043</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1.967696629474106</v>
+        <v>1.942860454783437</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1.913365929996939</v>
+        <v>1.90983566159839</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>2.079772603019152</v>
+        <v>2.076440309375555</v>
       </c>
     </row>
     <row r="19">
